--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Sema6d-Kdr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Sema6d-Kdr.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>49.493922</v>
+        <v>55.91100466666666</v>
       </c>
       <c r="H2">
-        <v>148.481766</v>
+        <v>167.733014</v>
       </c>
       <c r="I2">
-        <v>0.7130820883536235</v>
+        <v>0.7311810562391667</v>
       </c>
       <c r="J2">
-        <v>0.7130820883536234</v>
+        <v>0.7311810562391668</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>142.158333</v>
+        <v>119.0164006666667</v>
       </c>
       <c r="N2">
-        <v>426.474999</v>
+        <v>357.049202</v>
       </c>
       <c r="O2">
-        <v>0.9500780504241082</v>
+        <v>0.9176278005170622</v>
       </c>
       <c r="P2">
-        <v>0.9500780504241081</v>
+        <v>0.9176278005170622</v>
       </c>
       <c r="Q2">
-        <v>7035.973445152025</v>
+        <v>6654.326533083869</v>
       </c>
       <c r="R2">
-        <v>63323.76100636823</v>
+        <v>59888.93879775482</v>
       </c>
       <c r="S2">
-        <v>0.6774836402953623</v>
+        <v>0.6709520644164889</v>
       </c>
       <c r="T2">
-        <v>0.6774836402953621</v>
+        <v>0.670952064416489</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>49.493922</v>
+        <v>55.91100466666666</v>
       </c>
       <c r="H3">
-        <v>148.481766</v>
+        <v>167.733014</v>
       </c>
       <c r="I3">
-        <v>0.7130820883536235</v>
+        <v>0.7311810562391667</v>
       </c>
       <c r="J3">
-        <v>0.7130820883536234</v>
+        <v>0.7311810562391668</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>0.6831970000000001</v>
       </c>
       <c r="O3">
-        <v>0.00152198950779668</v>
+        <v>0.001755838010330732</v>
       </c>
       <c r="P3">
-        <v>0.00152198950779668</v>
+        <v>0.001755838010330731</v>
       </c>
       <c r="Q3">
-        <v>11.271366342878</v>
+        <v>12.73274355175089</v>
       </c>
       <c r="R3">
-        <v>101.442297085902</v>
+        <v>114.594691965758</v>
       </c>
       <c r="S3">
-        <v>0.00108530345667196</v>
+        <v>0.001283835490978501</v>
       </c>
       <c r="T3">
-        <v>0.00108530345667196</v>
+        <v>0.001283835490978501</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>49.493922</v>
+        <v>55.91100466666666</v>
       </c>
       <c r="H4">
-        <v>148.481766</v>
+        <v>167.733014</v>
       </c>
       <c r="I4">
-        <v>0.7130820883536235</v>
+        <v>0.7311810562391667</v>
       </c>
       <c r="J4">
-        <v>0.7130820883536234</v>
+        <v>0.7311810562391668</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.576418</v>
+        <v>7.816301333333333</v>
       </c>
       <c r="N4">
-        <v>13.729254</v>
+        <v>23.448904</v>
       </c>
       <c r="O4">
-        <v>0.03058529317001626</v>
+        <v>0.06026442877207647</v>
       </c>
       <c r="P4">
-        <v>0.03058529317001625</v>
+        <v>0.06026442877207646</v>
       </c>
       <c r="Q4">
-        <v>226.504875531396</v>
+        <v>437.0172603240728</v>
       </c>
       <c r="R4">
-        <v>2038.543879782564</v>
+        <v>3933.155342916656</v>
       </c>
       <c r="S4">
-        <v>0.02180982472658301</v>
+        <v>0.0440642086832169</v>
       </c>
       <c r="T4">
-        <v>0.021809824726583</v>
+        <v>0.0440642086832169</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>49.493922</v>
+        <v>55.91100466666666</v>
       </c>
       <c r="H5">
-        <v>148.481766</v>
+        <v>167.733014</v>
       </c>
       <c r="I5">
-        <v>0.7130820883536235</v>
+        <v>0.7311810562391667</v>
       </c>
       <c r="J5">
-        <v>0.7130820883536234</v>
+        <v>0.7311810562391668</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1328223333333333</v>
+        <v>0.105045</v>
       </c>
       <c r="N5">
-        <v>0.398467</v>
+        <v>0.315135</v>
       </c>
       <c r="O5">
-        <v>0.0008876833376071904</v>
+        <v>0.000809906968832672</v>
       </c>
       <c r="P5">
-        <v>0.0008876833376071903</v>
+        <v>0.000809906968832672</v>
       </c>
       <c r="Q5">
-        <v>6.573898205858001</v>
+        <v>5.873171485209999</v>
       </c>
       <c r="R5">
-        <v>59.165083852722</v>
+        <v>52.85854336689</v>
       </c>
       <c r="S5">
-        <v>0.0006329910881776499</v>
+        <v>0.000592188632926535</v>
       </c>
       <c r="T5">
-        <v>0.0006329910881776497</v>
+        <v>0.0005921886329265351</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>49.493922</v>
+        <v>55.91100466666666</v>
       </c>
       <c r="H6">
-        <v>148.481766</v>
+        <v>167.733014</v>
       </c>
       <c r="I6">
-        <v>0.7130820883536235</v>
+        <v>0.7311810562391667</v>
       </c>
       <c r="J6">
-        <v>0.7130820883536234</v>
+        <v>0.7311810562391668</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.532751666666667</v>
+        <v>2.534602333333333</v>
       </c>
       <c r="N6">
-        <v>7.598255</v>
+        <v>7.603807</v>
       </c>
       <c r="O6">
-        <v>0.01692698356047181</v>
+        <v>0.01954202573169801</v>
       </c>
       <c r="P6">
-        <v>0.01692698356047181</v>
+        <v>0.01954202573169801</v>
       </c>
       <c r="Q6">
-        <v>125.35581343537</v>
+        <v>141.7121628871442</v>
       </c>
       <c r="R6">
-        <v>1128.20232091833</v>
+        <v>1275.409465984298</v>
       </c>
       <c r="S6">
-        <v>0.01207032878682869</v>
+        <v>0.01428875901555593</v>
       </c>
       <c r="T6">
-        <v>0.01207032878682869</v>
+        <v>0.01428875901555593</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>38.609574</v>
       </c>
       <c r="I7">
-        <v>0.185422064944754</v>
+        <v>0.1683066942221897</v>
       </c>
       <c r="J7">
-        <v>0.185422064944754</v>
+        <v>0.1683066942221898</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>142.158333</v>
+        <v>119.0164006666667</v>
       </c>
       <c r="N7">
-        <v>426.474999</v>
+        <v>357.049202</v>
       </c>
       <c r="O7">
-        <v>0.9500780504241082</v>
+        <v>0.9176278005170622</v>
       </c>
       <c r="P7">
-        <v>0.9500780504241081</v>
+        <v>0.9176278005170622</v>
       </c>
       <c r="Q7">
-        <v>1829.557559226714</v>
+        <v>1531.724176251105</v>
       </c>
       <c r="R7">
-        <v>16466.01803304043</v>
+        <v>13785.51758625995</v>
       </c>
       <c r="S7">
-        <v>0.1761654339683243</v>
+        <v>0.1544429016314057</v>
       </c>
       <c r="T7">
-        <v>0.1761654339683242</v>
+        <v>0.1544429016314057</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>38.609574</v>
       </c>
       <c r="I8">
-        <v>0.185422064944754</v>
+        <v>0.1683066942221897</v>
       </c>
       <c r="J8">
-        <v>0.185422064944754</v>
+        <v>0.1683066942221898</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>0.6831970000000001</v>
       </c>
       <c r="O8">
-        <v>0.00152198950779668</v>
+        <v>0.001755838010330732</v>
       </c>
       <c r="P8">
-        <v>0.00152198950779668</v>
+        <v>0.001755838010330731</v>
       </c>
       <c r="Q8">
         <v>2.930882792008667</v>
@@ -948,10 +948,10 @@
         <v>26.377945128078</v>
       </c>
       <c r="S8">
-        <v>0.0002822104373599101</v>
+        <v>0.0002955192911084324</v>
       </c>
       <c r="T8">
-        <v>0.00028221043735991</v>
+        <v>0.0002955192911084325</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>38.609574</v>
       </c>
       <c r="I9">
-        <v>0.185422064944754</v>
+        <v>0.1683066942221897</v>
       </c>
       <c r="J9">
-        <v>0.185422064944754</v>
+        <v>0.1683066942221898</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.576418</v>
+        <v>7.816301333333333</v>
       </c>
       <c r="N9">
-        <v>13.729254</v>
+        <v>23.448904</v>
       </c>
       <c r="O9">
-        <v>0.03058529317001626</v>
+        <v>0.06026442877207647</v>
       </c>
       <c r="P9">
-        <v>0.03058529317001625</v>
+        <v>0.06026442877207646</v>
       </c>
       <c r="Q9">
-        <v>58.897849808644</v>
+        <v>100.5946882452107</v>
       </c>
       <c r="R9">
-        <v>530.0806482777961</v>
+        <v>905.352194206896</v>
       </c>
       <c r="S9">
-        <v>0.005671188216525096</v>
+        <v>0.01014290678581681</v>
       </c>
       <c r="T9">
-        <v>0.005671188216525094</v>
+        <v>0.01014290678581681</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>38.609574</v>
       </c>
       <c r="I10">
-        <v>0.185422064944754</v>
+        <v>0.1683066942221897</v>
       </c>
       <c r="J10">
-        <v>0.185422064944754</v>
+        <v>0.1683066942221898</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1328223333333333</v>
+        <v>0.105045</v>
       </c>
       <c r="N10">
-        <v>0.398467</v>
+        <v>0.315135</v>
       </c>
       <c r="O10">
-        <v>0.0008876833376071904</v>
+        <v>0.000809906968832672</v>
       </c>
       <c r="P10">
-        <v>0.0008876833376071903</v>
+        <v>0.000809906968832672</v>
       </c>
       <c r="Q10">
-        <v>1.709404569228667</v>
+        <v>1.35191423361</v>
       </c>
       <c r="R10">
-        <v>15.384641123058</v>
+        <v>12.16722810249</v>
       </c>
       <c r="S10">
-        <v>0.0001645960774761765</v>
+        <v>0.0001363127645517411</v>
       </c>
       <c r="T10">
-        <v>0.0001645960774761764</v>
+        <v>0.0001363127645517411</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>38.609574</v>
       </c>
       <c r="I11">
-        <v>0.185422064944754</v>
+        <v>0.1683066942221897</v>
       </c>
       <c r="J11">
-        <v>0.185422064944754</v>
+        <v>0.1683066942221898</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.532751666666667</v>
+        <v>2.534602333333333</v>
       </c>
       <c r="N11">
-        <v>7.598255</v>
+        <v>7.603807</v>
       </c>
       <c r="O11">
-        <v>0.01692698356047181</v>
+        <v>0.01954202573169801</v>
       </c>
       <c r="P11">
-        <v>0.01692698356047181</v>
+        <v>0.01954202573169801</v>
       </c>
       <c r="Q11">
-        <v>32.59615429926333</v>
+        <v>32.61997211646867</v>
       </c>
       <c r="R11">
-        <v>293.36538869337</v>
+        <v>293.579749048218</v>
       </c>
       <c r="S11">
-        <v>0.003138636245068588</v>
+        <v>0.003289053749307061</v>
       </c>
       <c r="T11">
-        <v>0.003138636245068587</v>
+        <v>0.003289053749307062</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.09074</v>
+        <v>0.6944773333333333</v>
       </c>
       <c r="H12">
-        <v>0.27222</v>
+        <v>2.083432</v>
       </c>
       <c r="I12">
-        <v>0.001307333629717358</v>
+        <v>0.00908208809961812</v>
       </c>
       <c r="J12">
-        <v>0.001307333629717358</v>
+        <v>0.009082088099618121</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>142.158333</v>
+        <v>119.0164006666667</v>
       </c>
       <c r="N12">
-        <v>426.474999</v>
+        <v>357.049202</v>
       </c>
       <c r="O12">
-        <v>0.9500780504241082</v>
+        <v>0.9176278005170622</v>
       </c>
       <c r="P12">
-        <v>0.9500780504241081</v>
+        <v>0.9176278005170622</v>
       </c>
       <c r="Q12">
-        <v>12.89944713642</v>
+        <v>82.65419255791821</v>
       </c>
       <c r="R12">
-        <v>116.09502422778</v>
+        <v>743.8877330212639</v>
       </c>
       <c r="S12">
-        <v>0.001242068986175741</v>
+        <v>0.008333976526954759</v>
       </c>
       <c r="T12">
-        <v>0.00124206898617574</v>
+        <v>0.008333976526954761</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.09074</v>
+        <v>0.6944773333333333</v>
       </c>
       <c r="H13">
-        <v>0.27222</v>
+        <v>2.083432</v>
       </c>
       <c r="I13">
-        <v>0.001307333629717358</v>
+        <v>0.00908208809961812</v>
       </c>
       <c r="J13">
-        <v>0.001307333629717358</v>
+        <v>0.009082088099618121</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>0.6831970000000001</v>
       </c>
       <c r="O13">
-        <v>0.00152198950779668</v>
+        <v>0.001755838010330732</v>
       </c>
       <c r="P13">
-        <v>0.00152198950779668</v>
+        <v>0.001755838010330731</v>
       </c>
       <c r="Q13">
-        <v>0.02066443192666667</v>
+        <v>0.1581549435671111</v>
       </c>
       <c r="R13">
-        <v>0.18597988734</v>
+        <v>1.423394492104</v>
       </c>
       <c r="S13">
-        <v>1.989748067619569E-06</v>
+        <v>1.594667549848189E-05</v>
       </c>
       <c r="T13">
-        <v>1.989748067619568E-06</v>
+        <v>1.594667549848189E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.09074</v>
+        <v>0.6944773333333333</v>
       </c>
       <c r="H14">
-        <v>0.27222</v>
+        <v>2.083432</v>
       </c>
       <c r="I14">
-        <v>0.001307333629717358</v>
+        <v>0.00908208809961812</v>
       </c>
       <c r="J14">
-        <v>0.001307333629717358</v>
+        <v>0.009082088099618121</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.576418</v>
+        <v>7.816301333333333</v>
       </c>
       <c r="N14">
-        <v>13.729254</v>
+        <v>23.448904</v>
       </c>
       <c r="O14">
-        <v>0.03058529317001626</v>
+        <v>0.06026442877207647</v>
       </c>
       <c r="P14">
-        <v>0.03058529317001625</v>
+        <v>0.06026442877207646</v>
       </c>
       <c r="Q14">
-        <v>0.41526416932</v>
+        <v>5.428244106503111</v>
       </c>
       <c r="R14">
-        <v>3.737377523880001</v>
+        <v>48.85419695852799</v>
       </c>
       <c r="S14">
-        <v>3.998518233592688E-05</v>
+        <v>0.0005473268513811595</v>
       </c>
       <c r="T14">
-        <v>3.998518233592687E-05</v>
+        <v>0.0005473268513811596</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.09074</v>
+        <v>0.6944773333333333</v>
       </c>
       <c r="H15">
-        <v>0.27222</v>
+        <v>2.083432</v>
       </c>
       <c r="I15">
-        <v>0.001307333629717358</v>
+        <v>0.00908208809961812</v>
       </c>
       <c r="J15">
-        <v>0.001307333629717358</v>
+        <v>0.009082088099618121</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.1328223333333333</v>
+        <v>0.105045</v>
       </c>
       <c r="N15">
-        <v>0.398467</v>
+        <v>0.315135</v>
       </c>
       <c r="O15">
-        <v>0.0008876833376071904</v>
+        <v>0.000809906968832672</v>
       </c>
       <c r="P15">
-        <v>0.0008876833376071903</v>
+        <v>0.000809906968832672</v>
       </c>
       <c r="Q15">
-        <v>0.01205229852666667</v>
+        <v>0.07295137148</v>
       </c>
       <c r="R15">
-        <v>0.10847068674</v>
+        <v>0.65656234332</v>
       </c>
       <c r="S15">
-        <v>1.160498279793627E-06</v>
+        <v>7.355646443432993E-06</v>
       </c>
       <c r="T15">
-        <v>1.160498279793627E-06</v>
+        <v>7.355646443432995E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.09074</v>
+        <v>0.6944773333333333</v>
       </c>
       <c r="H16">
-        <v>0.27222</v>
+        <v>2.083432</v>
       </c>
       <c r="I16">
-        <v>0.001307333629717358</v>
+        <v>0.00908208809961812</v>
       </c>
       <c r="J16">
-        <v>0.001307333629717358</v>
+        <v>0.009082088099618121</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.532751666666667</v>
+        <v>2.534602333333333</v>
       </c>
       <c r="N16">
-        <v>7.598255</v>
+        <v>7.603807</v>
       </c>
       <c r="O16">
-        <v>0.01692698356047181</v>
+        <v>0.01954202573169801</v>
       </c>
       <c r="P16">
-        <v>0.01692698356047181</v>
+        <v>0.01954202573169801</v>
       </c>
       <c r="Q16">
-        <v>0.2298218862333333</v>
+        <v>1.760223869513778</v>
       </c>
       <c r="R16">
-        <v>2.0683969761</v>
+        <v>15.842014825624</v>
       </c>
       <c r="S16">
-        <v>2.212921485827767E-05</v>
+        <v>0.0001774823993402856</v>
       </c>
       <c r="T16">
-        <v>2.212921485827766E-05</v>
+        <v>0.0001774823993402856</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.555353999999999</v>
+        <v>5.954760333333334</v>
       </c>
       <c r="H17">
-        <v>19.666062</v>
+        <v>17.864281</v>
       </c>
       <c r="I17">
-        <v>0.0944460517842429</v>
+        <v>0.07787389935372697</v>
       </c>
       <c r="J17">
-        <v>0.09444605178424288</v>
+        <v>0.077873899353727</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>142.158333</v>
+        <v>119.0164006666667</v>
       </c>
       <c r="N17">
-        <v>426.474999</v>
+        <v>357.049202</v>
       </c>
       <c r="O17">
-        <v>0.9500780504241082</v>
+        <v>0.9176278005170622</v>
       </c>
       <c r="P17">
-        <v>0.9500780504241081</v>
+        <v>0.9176278005170622</v>
       </c>
       <c r="Q17">
-        <v>931.8981968648818</v>
+        <v>708.7141417059735</v>
       </c>
       <c r="R17">
-        <v>8387.083771783937</v>
+        <v>6378.427275353763</v>
       </c>
       <c r="S17">
-        <v>0.08973112074942785</v>
+        <v>0.07145925498164755</v>
       </c>
       <c r="T17">
-        <v>0.08973112074942784</v>
+        <v>0.07145925498164758</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>6.555353999999999</v>
+        <v>5.954760333333334</v>
       </c>
       <c r="H18">
-        <v>19.666062</v>
+        <v>17.864281</v>
       </c>
       <c r="I18">
-        <v>0.0944460517842429</v>
+        <v>0.07787389935372697</v>
       </c>
       <c r="J18">
-        <v>0.09444605178424288</v>
+        <v>0.077873899353727</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>0.6831970000000001</v>
       </c>
       <c r="O18">
-        <v>0.00152198950779668</v>
+        <v>0.001755838010330732</v>
       </c>
       <c r="P18">
-        <v>0.00152198950779668</v>
+        <v>0.001755838010330731</v>
       </c>
       <c r="Q18">
-        <v>1.492866062246</v>
+        <v>1.356091465150778</v>
       </c>
       <c r="R18">
-        <v>13.435794560214</v>
+        <v>12.204823186357</v>
       </c>
       <c r="S18">
-        <v>0.0001437458998684396</v>
+        <v>0.0001367339524979436</v>
       </c>
       <c r="T18">
-        <v>0.0001437458998684395</v>
+        <v>0.0001367339524979436</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>6.555353999999999</v>
+        <v>5.954760333333334</v>
       </c>
       <c r="H19">
-        <v>19.666062</v>
+        <v>17.864281</v>
       </c>
       <c r="I19">
-        <v>0.0944460517842429</v>
+        <v>0.07787389935372697</v>
       </c>
       <c r="J19">
-        <v>0.09444605178424288</v>
+        <v>0.077873899353727</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.576418</v>
+        <v>7.816301333333333</v>
       </c>
       <c r="N19">
-        <v>13.729254</v>
+        <v>23.448904</v>
       </c>
       <c r="O19">
-        <v>0.03058529317001626</v>
+        <v>0.06026442877207647</v>
       </c>
       <c r="P19">
-        <v>0.03058529317001625</v>
+        <v>0.06026442877207646</v>
       </c>
       <c r="Q19">
-        <v>30.000040041972</v>
+        <v>46.54420113311377</v>
       </c>
       <c r="R19">
-        <v>270.000360377748</v>
+        <v>418.897810198024</v>
       </c>
       <c r="S19">
-        <v>0.002888660182571606</v>
+        <v>0.004693026060806531</v>
       </c>
       <c r="T19">
-        <v>0.002888660182571605</v>
+        <v>0.004693026060806532</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>6.555353999999999</v>
+        <v>5.954760333333334</v>
       </c>
       <c r="H20">
-        <v>19.666062</v>
+        <v>17.864281</v>
       </c>
       <c r="I20">
-        <v>0.0944460517842429</v>
+        <v>0.07787389935372697</v>
       </c>
       <c r="J20">
-        <v>0.09444605178424288</v>
+        <v>0.077873899353727</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.1328223333333333</v>
+        <v>0.105045</v>
       </c>
       <c r="N20">
-        <v>0.398467</v>
+        <v>0.315135</v>
       </c>
       <c r="O20">
-        <v>0.0008876833376071904</v>
+        <v>0.000809906968832672</v>
       </c>
       <c r="P20">
-        <v>0.0008876833376071903</v>
+        <v>0.000809906968832672</v>
       </c>
       <c r="Q20">
-        <v>0.8706974141059999</v>
+        <v>0.6255177992150001</v>
       </c>
       <c r="R20">
-        <v>7.836276726953999</v>
+        <v>5.629660192935001</v>
       </c>
       <c r="S20">
-        <v>8.383818647165827E-05</v>
+        <v>6.307061377675759E-05</v>
       </c>
       <c r="T20">
-        <v>8.383818647165824E-05</v>
+        <v>6.307061377675761E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>6.555353999999999</v>
+        <v>5.954760333333334</v>
       </c>
       <c r="H21">
-        <v>19.666062</v>
+        <v>17.864281</v>
       </c>
       <c r="I21">
-        <v>0.0944460517842429</v>
+        <v>0.07787389935372697</v>
       </c>
       <c r="J21">
-        <v>0.09444605178424288</v>
+        <v>0.077873899353727</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>2.532751666666667</v>
+        <v>2.534602333333333</v>
       </c>
       <c r="N21">
-        <v>7.598255</v>
+        <v>7.603807</v>
       </c>
       <c r="O21">
-        <v>0.01692698356047181</v>
+        <v>0.01954202573169801</v>
       </c>
       <c r="P21">
-        <v>0.01692698356047181</v>
+        <v>0.01954202573169801</v>
       </c>
       <c r="Q21">
-        <v>16.60308376909</v>
+        <v>15.09294943530745</v>
       </c>
       <c r="R21">
-        <v>149.42775392181</v>
+        <v>135.836544917767</v>
       </c>
       <c r="S21">
-        <v>0.001598686765903349</v>
+        <v>0.001521813744998194</v>
       </c>
       <c r="T21">
-        <v>0.001598686765903349</v>
+        <v>0.001521813744998194</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.3985753333333333</v>
+        <v>1.036602666666667</v>
       </c>
       <c r="H22">
-        <v>1.195726</v>
+        <v>3.109808</v>
       </c>
       <c r="I22">
-        <v>0.005742461287662251</v>
+        <v>0.01355626208529831</v>
       </c>
       <c r="J22">
-        <v>0.005742461287662249</v>
+        <v>0.01355626208529831</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>142.158333</v>
+        <v>119.0164006666667</v>
       </c>
       <c r="N22">
-        <v>426.474999</v>
+        <v>357.049202</v>
       </c>
       <c r="O22">
-        <v>0.9500780504241082</v>
+        <v>0.9176278005170622</v>
       </c>
       <c r="P22">
-        <v>0.9500780504241081</v>
+        <v>0.9176278005170622</v>
       </c>
       <c r="Q22">
-        <v>56.660804961586</v>
+        <v>123.3727183081351</v>
       </c>
       <c r="R22">
-        <v>509.947244654274</v>
+        <v>1110.354464773216</v>
       </c>
       <c r="S22">
-        <v>0.005455786424818065</v>
+        <v>0.01243960296056513</v>
       </c>
       <c r="T22">
-        <v>0.005455786424818062</v>
+        <v>0.01243960296056513</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.3985753333333333</v>
+        <v>1.036602666666667</v>
       </c>
       <c r="H23">
-        <v>1.195726</v>
+        <v>3.109808</v>
       </c>
       <c r="I23">
-        <v>0.005742461287662251</v>
+        <v>0.01355626208529831</v>
       </c>
       <c r="J23">
-        <v>0.005742461287662249</v>
+        <v>0.01355626208529831</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>0.6831970000000001</v>
       </c>
       <c r="O23">
-        <v>0.00152198950779668</v>
+        <v>0.001755838010330732</v>
       </c>
       <c r="P23">
-        <v>0.00152198950779668</v>
+        <v>0.001755838010330731</v>
       </c>
       <c r="Q23">
-        <v>0.09076849066911112</v>
+        <v>0.2360679440195556</v>
       </c>
       <c r="R23">
-        <v>0.8169164160220002</v>
+        <v>2.124611496176</v>
       </c>
       <c r="S23">
-        <v>8.739965828750556E-06</v>
+        <v>2.380260024737212E-05</v>
       </c>
       <c r="T23">
-        <v>8.739965828750553E-06</v>
+        <v>2.380260024737212E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.3985753333333333</v>
+        <v>1.036602666666667</v>
       </c>
       <c r="H24">
-        <v>1.195726</v>
+        <v>3.109808</v>
       </c>
       <c r="I24">
-        <v>0.005742461287662251</v>
+        <v>0.01355626208529831</v>
       </c>
       <c r="J24">
-        <v>0.005742461287662249</v>
+        <v>0.01355626208529831</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>4.576418</v>
+        <v>7.816301333333333</v>
       </c>
       <c r="N24">
-        <v>13.729254</v>
+        <v>23.448904</v>
       </c>
       <c r="O24">
-        <v>0.03058529317001626</v>
+        <v>0.06026442877207647</v>
       </c>
       <c r="P24">
-        <v>0.03058529317001625</v>
+        <v>0.06026442877207646</v>
       </c>
       <c r="Q24">
-        <v>1.824047329822667</v>
+        <v>8.102398805603556</v>
       </c>
       <c r="R24">
-        <v>16.416425968404</v>
+        <v>72.92158925043199</v>
       </c>
       <c r="S24">
-        <v>0.000175634862000619</v>
+        <v>0.0008169603908550609</v>
       </c>
       <c r="T24">
-        <v>0.0001756348620006189</v>
+        <v>0.0008169603908550609</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.3985753333333333</v>
+        <v>1.036602666666667</v>
       </c>
       <c r="H25">
-        <v>1.195726</v>
+        <v>3.109808</v>
       </c>
       <c r="I25">
-        <v>0.005742461287662251</v>
+        <v>0.01355626208529831</v>
       </c>
       <c r="J25">
-        <v>0.005742461287662249</v>
+        <v>0.01355626208529831</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.1328223333333333</v>
+        <v>0.105045</v>
       </c>
       <c r="N25">
-        <v>0.398467</v>
+        <v>0.315135</v>
       </c>
       <c r="O25">
-        <v>0.0008876833376071904</v>
+        <v>0.000809906968832672</v>
       </c>
       <c r="P25">
-        <v>0.0008876833376071903</v>
+        <v>0.000809906968832672</v>
       </c>
       <c r="Q25">
-        <v>0.05293970578244445</v>
+        <v>0.10888992712</v>
       </c>
       <c r="R25">
-        <v>0.4764573520420001</v>
+        <v>0.9800093440800001</v>
       </c>
       <c r="S25">
-        <v>5.097487201912111E-06</v>
+        <v>1.097931113420523E-05</v>
       </c>
       <c r="T25">
-        <v>5.097487201912108E-06</v>
+        <v>1.097931113420523E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.3985753333333333</v>
+        <v>1.036602666666667</v>
       </c>
       <c r="H26">
-        <v>1.195726</v>
+        <v>3.109808</v>
       </c>
       <c r="I26">
-        <v>0.005742461287662251</v>
+        <v>0.01355626208529831</v>
       </c>
       <c r="J26">
-        <v>0.005742461287662249</v>
+        <v>0.01355626208529831</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.532751666666667</v>
+        <v>2.534602333333333</v>
       </c>
       <c r="N26">
-        <v>7.598255</v>
+        <v>7.603807</v>
       </c>
       <c r="O26">
-        <v>0.01692698356047181</v>
+        <v>0.01954202573169801</v>
       </c>
       <c r="P26">
-        <v>0.01692698356047181</v>
+        <v>0.01954202573169801</v>
       </c>
       <c r="Q26">
-        <v>1.009492339792222</v>
+        <v>2.627375537672889</v>
       </c>
       <c r="R26">
-        <v>9.08543105813</v>
+        <v>23.646379839056</v>
       </c>
       <c r="S26">
-        <v>9.720254781290471E-05</v>
+        <v>0.0002649168224965418</v>
       </c>
       <c r="T26">
-        <v>9.720254781290468E-05</v>
+        <v>0.0002649168224965418</v>
       </c>
     </row>
   </sheetData>
